--- a/results_n1.xlsx
+++ b/results_n1.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="2120" windowWidth="33300" windowHeight="18800" activeTab="2"/>
+    <workbookView xWindow="300" yWindow="800" windowWidth="33300" windowHeight="18800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="303">
   <si>
     <t>Datasets</t>
   </si>
@@ -2974,6 +2976,294 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Projects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Against(Win/Draw/Loss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1-measure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEEEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/0/0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18/2/0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORPH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camel-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poi-1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redaktor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skarbonka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xalan-2.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xerces-1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zxing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Softlab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datasets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Projects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Consumption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOMORO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEEEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORPH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant-1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camel-1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poi-1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redaktor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skarbonka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xalan-2.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xerces-1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zxing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Softlab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Average </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2984,7 +3274,7 @@
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3003,6 +3293,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3148,7 +3446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3273,6 +3571,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3300,14 +3654,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3618,26 +4000,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3660,7 +4042,7 @@
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -3684,40 +4066,40 @@
       <c r="H3" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="45">
         <v>0.59702999999999995</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="45">
         <v>5.6669999999999998E-2</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="45">
         <v>0.68825999999999998</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="45">
         <v>2.9094999999999999E-2</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="45">
         <v>0.54473000000000005</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="45">
         <v>5.1954E-2</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="45">
         <v>0.62817000000000001</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="45">
         <v>3.9814000000000002E-2</v>
       </c>
-      <c r="R3" s="51">
+      <c r="R3" s="45">
         <v>0.22641</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="45">
         <v>6.3772999999999996E-2</v>
       </c>
-      <c r="T3" s="51">
+      <c r="T3" s="45">
         <v>0.55989</v>
       </c>
-      <c r="U3" s="51">
+      <c r="U3" s="45">
         <v>2.2001E-2</v>
       </c>
       <c r="X3" s="27"/>
@@ -3732,7 +4114,7 @@
       <c r="AG3" s="27"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3754,40 +4136,40 @@
       <c r="H4" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="45">
         <v>0.56394</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="45">
         <v>6.2225999999999997E-2</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="45">
         <v>0.71725000000000005</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="45">
         <v>3.6505000000000003E-2</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="45">
         <v>0.58255000000000001</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="45">
         <v>3.2120000000000003E-2</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="45">
         <v>0.72863</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="45">
         <v>1.9397999999999999E-2</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="45">
         <v>0.41752</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="45">
         <v>4.5814000000000001E-2</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="45">
         <v>0.63254999999999995</v>
       </c>
-      <c r="U4" s="51">
+      <c r="U4" s="45">
         <v>1.9543999999999999E-2</v>
       </c>
       <c r="X4" s="27"/>
@@ -3802,7 +4184,7 @@
       <c r="AG4" s="27"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3824,40 +4206,40 @@
       <c r="H5" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="45">
         <v>0.40638999999999997</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="45">
         <v>6.2415999999999999E-2</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="45">
         <v>0.66459999999999997</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="45">
         <v>4.3991000000000002E-2</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="45">
         <v>0.29275000000000001</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="45">
         <v>6.1435999999999998E-2</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="45">
         <v>0.61646999999999996</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="45">
         <v>4.0388E-2</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="45">
         <v>0.36845</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="45">
         <v>7.3776999999999995E-2</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="45">
         <v>0.63451000000000002</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="45">
         <v>3.6516E-2</v>
       </c>
       <c r="X5" s="27"/>
@@ -3872,7 +4254,7 @@
       <c r="AG5" s="27"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3894,40 +4276,40 @@
       <c r="H6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="45">
         <v>0.24457999999999999</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="45">
         <v>9.7089999999999996E-2</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="45">
         <v>0.57548999999999995</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="45">
         <v>4.1390000000000003E-2</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="45">
         <v>0.28885</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="45">
         <v>3.1433000000000003E-2</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="45">
         <v>0.58728000000000002</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="45">
         <v>1.4036E-2</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="45">
         <v>0.25062000000000001</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="45">
         <v>3.0672999999999999E-2</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="45">
         <v>0.57089999999999996</v>
       </c>
-      <c r="U6" s="51">
+      <c r="U6" s="45">
         <v>1.2293999999999999E-2</v>
       </c>
       <c r="X6" s="27"/>
@@ -3942,7 +4324,7 @@
       <c r="AG6" s="27"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
@@ -3964,40 +4346,40 @@
       <c r="H7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="45">
         <v>0.30187000000000003</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="45">
         <v>9.4199000000000005E-2</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="45">
         <v>0.59809000000000001</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="45">
         <v>4.3563999999999999E-2</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="45">
         <v>0.29994999999999999</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="45">
         <v>3.5840999999999998E-2</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="45">
         <v>0.59177000000000002</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="45">
         <v>1.6858999999999999E-2</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="45">
         <v>0.29210000000000003</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="45">
         <v>3.7940000000000002E-2</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="45">
         <v>0.58674999999999999</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="45">
         <v>1.5159000000000001E-2</v>
       </c>
       <c r="X7" s="27"/>
@@ -4034,18 +4416,18 @@
       <c r="H8" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
       <c r="X8" s="27"/>
       <c r="Y8" s="28"/>
       <c r="Z8" s="27"/>
@@ -4058,7 +4440,7 @@
       <c r="AG8" s="28"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4082,40 +4464,40 @@
       <c r="H9" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="45">
         <v>0.39085999999999999</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="45">
         <v>0.12300999999999999</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="45">
         <v>0.63073000000000001</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="45">
         <v>9.7850000000000006E-2</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="45">
         <v>0.29751</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="45">
         <v>0.11638999999999999</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="45">
         <v>0.57008000000000003</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="45">
         <v>8.9605000000000004E-2</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="45">
         <v>0.18013999999999999</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="45">
         <v>5.0499999999999998E-3</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="45">
         <v>0.51914000000000005</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="45">
         <v>2.8493999999999998E-2</v>
       </c>
       <c r="X9" s="27"/>
@@ -4130,7 +4512,7 @@
       <c r="AG9" s="27"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -4152,40 +4534,40 @@
       <c r="H10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="45">
         <v>0.25645000000000001</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="45">
         <v>0.11128</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="45">
         <v>0.56667999999999996</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="45">
         <v>6.3287999999999997E-2</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="45">
         <v>0.30853999999999998</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="45">
         <v>9.5115000000000005E-2</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="45">
         <v>0.61384000000000005</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="45">
         <v>5.3717000000000001E-2</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="45">
         <v>0.20433999999999999</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="45">
         <v>0.10271</v>
       </c>
-      <c r="T10" s="51">
+      <c r="T10" s="45">
         <v>0.55179</v>
       </c>
-      <c r="U10" s="51">
+      <c r="U10" s="45">
         <v>4.0350999999999998E-2</v>
       </c>
       <c r="X10" s="27"/>
@@ -4200,7 +4582,7 @@
       <c r="AG10" s="27"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -4222,40 +4604,40 @@
       <c r="H11" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="45">
         <v>0.19957</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="45">
         <v>3.2231000000000003E-2</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="45">
         <v>0.51046000000000002</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="45">
         <v>3.7361999999999999E-2</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="45">
         <v>0.12499</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="45">
         <v>5.4944E-2</v>
       </c>
-      <c r="P11" s="51">
+      <c r="P11" s="45">
         <v>0.52183000000000002</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="45">
         <v>5.3220000000000003E-2</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="45">
         <v>0.18182000000000001</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="45">
         <v>0</v>
       </c>
-      <c r="T11" s="51">
+      <c r="T11" s="45">
         <v>0.49947999999999998</v>
       </c>
-      <c r="U11" s="51">
+      <c r="U11" s="45">
         <v>2.2169999999999999E-2</v>
       </c>
       <c r="X11" s="27"/>
@@ -4270,7 +4652,7 @@
       <c r="AG11" s="27"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -4292,40 +4674,40 @@
       <c r="H12" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="45">
         <v>0.75978000000000001</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="45">
         <v>3.4602000000000001E-2</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="45">
         <v>0.67923</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="45">
         <v>2.9904E-2</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="45">
         <v>0.72711999999999999</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="45">
         <v>2.5451000000000001E-2</v>
       </c>
-      <c r="P12" s="51">
+      <c r="P12" s="45">
         <v>0.64</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="45">
         <v>2.308E-2</v>
       </c>
-      <c r="R12" s="51">
+      <c r="R12" s="45">
         <v>4.6448000000000003E-2</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="45">
         <v>2.3823E-2</v>
       </c>
-      <c r="T12" s="51">
+      <c r="T12" s="45">
         <v>0.51136000000000004</v>
       </c>
-      <c r="U12" s="51">
+      <c r="U12" s="45">
         <v>6.7166999999999999E-3</v>
       </c>
       <c r="X12" s="27"/>
@@ -4340,7 +4722,7 @@
       <c r="AG12" s="27"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -4362,40 +4744,40 @@
       <c r="H13" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="45">
         <v>0.52947</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="45">
         <v>8.9426000000000005E-2</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="45">
         <v>0.70465</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="45">
         <v>4.9877999999999999E-2</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="45">
         <v>0.43711</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="45">
         <v>9.3729000000000007E-2</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="45">
         <v>0.67061000000000004</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="45">
         <v>5.5335000000000002E-2</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="45">
         <v>0.12548999999999999</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="45">
         <v>1.1087E-2</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="45">
         <v>0.49512</v>
       </c>
-      <c r="U13" s="51">
+      <c r="U13" s="45">
         <v>1.1627999999999999E-2</v>
       </c>
       <c r="X13" s="27"/>
@@ -4410,7 +4792,7 @@
       <c r="AG13" s="27"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -4432,40 +4814,40 @@
       <c r="H14" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="45">
         <v>0.3609</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="45">
         <v>0.10328</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="45">
         <v>0.57360999999999995</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="45">
         <v>9.0247999999999995E-2</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="45">
         <v>0.37662000000000001</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="45">
         <v>0.16385</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="45">
         <v>0.56721999999999995</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="45">
         <v>0.15375</v>
       </c>
-      <c r="R14" s="51" t="s">
+      <c r="R14" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="S14" s="51" t="s">
+      <c r="S14" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="T14" s="51">
+      <c r="T14" s="45">
         <v>0.5</v>
       </c>
-      <c r="U14" s="51">
+      <c r="U14" s="45">
         <v>0</v>
       </c>
       <c r="X14" s="27"/>
@@ -4480,7 +4862,7 @@
       <c r="AG14" s="27"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -4502,40 +4884,40 @@
       <c r="H15" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="45">
         <v>0.31878000000000001</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="45">
         <v>6.8726999999999996E-2</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="45">
         <v>0.61492000000000002</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="45">
         <v>3.7213000000000003E-2</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="45">
         <v>0.27978999999999998</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="45">
         <v>5.9540999999999997E-2</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="45">
         <v>0.58979000000000004</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="45">
         <v>2.5478000000000001E-2</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="45">
         <v>0.31025000000000003</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="45">
         <v>6.1883000000000001E-2</v>
       </c>
-      <c r="T15" s="51">
+      <c r="T15" s="45">
         <v>0.60538999999999998</v>
       </c>
-      <c r="U15" s="51">
+      <c r="U15" s="45">
         <v>2.9378999999999999E-2</v>
       </c>
       <c r="X15" s="27"/>
@@ -4550,7 +4932,7 @@
       <c r="AG15" s="27"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -4572,40 +4954,40 @@
       <c r="H16" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="45">
         <v>0.88297999999999999</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="45">
         <v>3.1198E-2</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="45">
         <v>0.73424</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="45">
         <v>4.1811000000000001E-2</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="45">
         <v>0.86777000000000004</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="45">
         <v>3.3707000000000001E-2</v>
       </c>
-      <c r="P16" s="51">
+      <c r="P16" s="45">
         <v>0.72516999999999998</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="45">
         <v>4.2227000000000001E-2</v>
       </c>
-      <c r="R16" s="51">
+      <c r="R16" s="45">
         <v>2.6492000000000002E-2</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="45">
         <v>2.4819000000000002E-4</v>
       </c>
-      <c r="T16" s="51">
+      <c r="T16" s="45">
         <v>0.48104999999999998</v>
       </c>
-      <c r="U16" s="51">
+      <c r="U16" s="45">
         <v>1.9643999999999998E-2</v>
       </c>
       <c r="X16" s="27"/>
@@ -4620,7 +5002,7 @@
       <c r="AG16" s="27"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -4642,40 +5024,40 @@
       <c r="H17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="45">
         <v>0.32678000000000001</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="45">
         <v>7.0304000000000005E-2</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="45">
         <v>0.60275000000000001</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="45">
         <v>3.4015999999999998E-2</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="45">
         <v>0.28416000000000002</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="45">
         <v>7.2967000000000004E-2</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="45">
         <v>0.58342000000000005</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="45">
         <v>2.8326E-2</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="45">
         <v>0.17175000000000001</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="45">
         <v>6.2494000000000001E-2</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="45">
         <v>0.54179999999999995</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="45">
         <v>2.2266000000000001E-2</v>
       </c>
       <c r="X17" s="27"/>
@@ -4690,7 +5072,7 @@
       <c r="AG17" s="27"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
@@ -4712,40 +5094,40 @@
       <c r="H18" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="45">
         <v>0.10278</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="45">
         <v>5.5692999999999999E-2</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="45">
         <v>0.51034999999999997</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="45">
         <v>1.7047E-2</v>
       </c>
-      <c r="N18" s="51">
+      <c r="N18" s="45">
         <v>0.11139</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="45">
         <v>6.2313E-2</v>
       </c>
-      <c r="P18" s="51">
+      <c r="P18" s="45">
         <v>0.51507999999999998</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="45">
         <v>2.0639000000000001E-2</v>
       </c>
-      <c r="R18" s="51">
+      <c r="R18" s="45">
         <v>0.13013</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="45">
         <v>5.1951999999999998E-2</v>
       </c>
-      <c r="T18" s="51">
+      <c r="T18" s="45">
         <v>0.52171000000000001</v>
       </c>
-      <c r="U18" s="51">
+      <c r="U18" s="45">
         <v>2.1454000000000001E-2</v>
       </c>
       <c r="X18" s="27"/>
@@ -4782,18 +5164,18 @@
       <c r="H19" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
       <c r="X19" s="27"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="27"/>
@@ -4806,7 +5188,7 @@
       <c r="AG19" s="28"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -4830,40 +5212,40 @@
       <c r="H20" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="45">
         <v>0.62844</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="45">
         <v>5.8427E-2</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="45">
         <v>0.68925999999999998</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="45">
         <v>3.2911999999999997E-2</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="45">
         <v>0.64083000000000001</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="45">
         <v>4.3520000000000003E-2</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="45">
         <v>0.63653000000000004</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="45">
         <v>4.9419999999999999E-2</v>
       </c>
-      <c r="R20" s="51">
+      <c r="R20" s="45">
         <v>0.55879000000000001</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="45">
         <v>5.3929999999999999E-2</v>
       </c>
-      <c r="T20" s="51">
+      <c r="T20" s="45">
         <v>0.65690999999999999</v>
       </c>
-      <c r="U20" s="51">
+      <c r="U20" s="45">
         <v>2.9034000000000001E-2</v>
       </c>
       <c r="X20" s="27"/>
@@ -4878,7 +5260,7 @@
       <c r="AG20" s="27"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -4900,40 +5282,40 @@
       <c r="H21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="45">
         <v>0.60207999999999995</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="45">
         <v>9.4552999999999998E-2</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="45">
         <v>0.69091000000000002</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="45">
         <v>6.8434999999999996E-2</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="45">
         <v>0.50751000000000002</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="45">
         <v>0.11476</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="45">
         <v>0.58877000000000002</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="45">
         <v>8.9945999999999998E-2</v>
       </c>
-      <c r="R21" s="51">
+      <c r="R21" s="45">
         <v>0.52446000000000004</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="45">
         <v>0.10314</v>
       </c>
-      <c r="T21" s="51">
+      <c r="T21" s="45">
         <v>0.65668000000000004</v>
       </c>
-      <c r="U21" s="51">
+      <c r="U21" s="45">
         <v>7.1584999999999996E-2</v>
       </c>
       <c r="X21" s="27"/>
@@ -4948,7 +5330,7 @@
       <c r="AG21" s="27"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
@@ -4970,40 +5352,40 @@
       <c r="H22" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="45">
         <v>0.21535000000000001</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="45">
         <v>8.8980000000000004E-2</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="45">
         <v>0.53283000000000003</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="45">
         <v>1.8334E-2</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="45">
         <v>0.31929000000000002</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="45">
         <v>6.1950999999999999E-2</v>
       </c>
-      <c r="P22" s="51">
+      <c r="P22" s="45">
         <v>0.56069999999999998</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="45">
         <v>2.4948000000000001E-2</v>
       </c>
-      <c r="R22" s="51">
+      <c r="R22" s="45">
         <v>0.33304</v>
       </c>
-      <c r="S22" s="51">
+      <c r="S22" s="45">
         <v>5.9827999999999999E-2</v>
       </c>
-      <c r="T22" s="51">
+      <c r="T22" s="45">
         <v>0.56423000000000001</v>
       </c>
-      <c r="U22" s="51">
+      <c r="U22" s="45">
         <v>2.9543E-2</v>
       </c>
       <c r="X22" s="27"/>
@@ -5040,18 +5422,18 @@
       <c r="H23" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
       <c r="X23" s="27"/>
       <c r="Y23" s="28"/>
       <c r="Z23" s="27"/>
@@ -5064,7 +5446,7 @@
       <c r="AG23" s="28"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -5088,40 +5470,40 @@
       <c r="H24" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="45">
         <v>0.35605999999999999</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="45">
         <v>9.0910000000000005E-2</v>
       </c>
-      <c r="L24" s="51">
+      <c r="L24" s="45">
         <v>0.5333</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="45">
         <v>7.0026000000000005E-2</v>
       </c>
-      <c r="N24" s="51">
+      <c r="N24" s="45">
         <v>0.23066</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="45">
         <v>8.8919999999999999E-2</v>
       </c>
-      <c r="P24" s="51">
+      <c r="P24" s="45">
         <v>0.54857</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="45">
         <v>0.10685</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="45">
         <v>0.33200000000000002</v>
       </c>
-      <c r="S24" s="51">
+      <c r="S24" s="45">
         <v>0.13611000000000001</v>
       </c>
-      <c r="T24" s="51">
+      <c r="T24" s="45">
         <v>0.63910999999999996</v>
       </c>
-      <c r="U24" s="51">
+      <c r="U24" s="45">
         <v>0.12823000000000001</v>
       </c>
       <c r="X24" s="27"/>
@@ -5136,7 +5518,7 @@
       <c r="AG24" s="27"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -5158,40 +5540,40 @@
       <c r="H25" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="45">
         <v>0.55583000000000005</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="45">
         <v>0.13358</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="45">
         <v>0.68439000000000005</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="45">
         <v>0.13239000000000001</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="45">
         <v>0.35350999999999999</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="45">
         <v>0.11147</v>
       </c>
-      <c r="P25" s="51">
+      <c r="P25" s="45">
         <v>0.60423000000000004</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="45">
         <v>0.13325000000000001</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="45">
         <v>0.43091000000000002</v>
       </c>
-      <c r="S25" s="51">
+      <c r="S25" s="45">
         <v>0.13124</v>
       </c>
-      <c r="T25" s="51">
+      <c r="T25" s="45">
         <v>0.67244999999999999</v>
       </c>
-      <c r="U25" s="51">
+      <c r="U25" s="45">
         <v>7.1709999999999996E-2</v>
       </c>
       <c r="X25" s="27"/>
@@ -5206,7 +5588,7 @@
       <c r="AG25" s="27"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
@@ -5228,40 +5610,40 @@
       <c r="H26" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="45">
         <v>0.42376999999999998</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="45">
         <v>0.17108999999999999</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="45">
         <v>0.63114999999999999</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="45">
         <v>9.4511999999999999E-2</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="45">
         <v>0.35422999999999999</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="45">
         <v>0.12053999999999999</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="45">
         <v>0.60484000000000004</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="45">
         <v>8.5635000000000003E-2</v>
       </c>
-      <c r="R26" s="51">
+      <c r="R26" s="45">
         <v>0.46565000000000001</v>
       </c>
-      <c r="S26" s="51">
+      <c r="S26" s="45">
         <v>0.1153</v>
       </c>
-      <c r="T26" s="51">
+      <c r="T26" s="45">
         <v>0.66361000000000003</v>
       </c>
-      <c r="U26" s="51">
+      <c r="U26" s="45">
         <v>5.6166000000000001E-2</v>
       </c>
       <c r="W26" s="27"/>
@@ -5278,7 +5660,7 @@
       <c r="AH26" s="27"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
@@ -5300,40 +5682,40 @@
       <c r="H27" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="45">
         <v>0.63431999999999999</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="45">
         <v>0.12695000000000001</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="45">
         <v>0.69196999999999997</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="45">
         <v>0.16578999999999999</v>
       </c>
-      <c r="N27" s="51">
+      <c r="N27" s="45">
         <v>0.42942000000000002</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="45">
         <v>0.17216999999999999</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="45">
         <v>0.59821000000000002</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="45">
         <v>0.14349999999999999</v>
       </c>
-      <c r="R27" s="51">
+      <c r="R27" s="45">
         <v>0.63244999999999996</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="45">
         <v>0.20200000000000001</v>
       </c>
-      <c r="T27" s="51">
+      <c r="T27" s="45">
         <v>0.73572000000000004</v>
       </c>
-      <c r="U27" s="51">
+      <c r="U27" s="45">
         <v>0.14327999999999999</v>
       </c>
       <c r="W27" s="27"/>
@@ -5350,7 +5732,7 @@
       <c r="AH27" s="27"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="11" t="s">
         <v>34</v>
       </c>
@@ -5372,40 +5754,40 @@
       <c r="H28" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="45">
         <v>0.29305999999999999</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="45">
         <v>9.8612000000000005E-2</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="45">
         <v>0.57823999999999998</v>
       </c>
-      <c r="M28" s="51">
+      <c r="M28" s="45">
         <v>4.9634999999999999E-2</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="45">
         <v>0.30864000000000003</v>
       </c>
-      <c r="O28" s="51">
+      <c r="O28" s="45">
         <v>9.937E-2</v>
       </c>
-      <c r="P28" s="51">
+      <c r="P28" s="45">
         <v>0.59580999999999995</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="45">
         <v>8.0499000000000001E-2</v>
       </c>
-      <c r="R28" s="51">
+      <c r="R28" s="45">
         <v>0.36007</v>
       </c>
-      <c r="S28" s="51">
+      <c r="S28" s="45">
         <v>0.12077</v>
       </c>
-      <c r="T28" s="51">
+      <c r="T28" s="45">
         <v>0.59872999999999998</v>
       </c>
-      <c r="U28" s="51">
+      <c r="U28" s="45">
         <v>8.0565999999999999E-2</v>
       </c>
       <c r="W28" s="27"/>
@@ -5518,14 +5900,14 @@
       <c r="AH30" s="28"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
@@ -5621,22 +6003,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="J1" t="s">
         <v>39</v>
       </c>
@@ -5645,8 +6027,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5673,7 +6055,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -5707,7 +6089,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -5739,7 +6121,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -5771,7 +6153,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5803,7 +6185,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
@@ -5863,7 +6245,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5888,7 +6270,7 @@
         <v>105</v>
       </c>
       <c r="J9">
-        <f>(C9-D9)/D9</f>
+        <f t="shared" ref="J9:J18" si="2">(C9-D9)/D9</f>
         <v>0.313770965681826</v>
       </c>
       <c r="L9">
@@ -5897,7 +6279,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -5920,7 +6302,7 @@
         <v>106</v>
       </c>
       <c r="J10">
-        <f>(C10-D10)/D10</f>
+        <f t="shared" si="2"/>
         <v>-0.16882738056653901</v>
       </c>
       <c r="L10">
@@ -5929,7 +6311,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -5952,7 +6334,7 @@
         <v>107</v>
       </c>
       <c r="J11">
-        <f>(C11-D11)/D11</f>
+        <f t="shared" si="2"/>
         <v>0.59668773501880101</v>
       </c>
       <c r="L11">
@@ -5961,7 +6343,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -5984,7 +6366,7 @@
         <v>108</v>
       </c>
       <c r="J12">
-        <f>(C12-D12)/D12</f>
+        <f t="shared" si="2"/>
         <v>4.49169325558368E-2</v>
       </c>
       <c r="L12">
@@ -5993,7 +6375,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -6016,7 +6398,7 @@
         <v>109</v>
       </c>
       <c r="J13">
-        <f>(C13-D13)/D13</f>
+        <f t="shared" si="2"/>
         <v>0.21129692754684201</v>
       </c>
       <c r="L13">
@@ -6025,7 +6407,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -6048,7 +6430,7 @@
         <v>110</v>
       </c>
       <c r="J14">
-        <f>(C14-D14)/D14</f>
+        <f t="shared" si="2"/>
         <v>-4.17396845626892E-2</v>
       </c>
       <c r="L14">
@@ -6057,7 +6439,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -6080,7 +6462,7 @@
         <v>111</v>
       </c>
       <c r="J15">
-        <f>(C15-D15)/D15</f>
+        <f t="shared" si="2"/>
         <v>0.139354515886915</v>
       </c>
       <c r="L15">
@@ -6089,7 +6471,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -6112,7 +6494,7 @@
         <v>112</v>
       </c>
       <c r="J16">
-        <f>(C16-D16)/D16</f>
+        <f t="shared" si="2"/>
         <v>1.7527685907556101E-2</v>
       </c>
       <c r="L16">
@@ -6121,7 +6503,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -6144,7 +6526,7 @@
         <v>113</v>
       </c>
       <c r="J17">
-        <f>(C17-D17)/D17</f>
+        <f t="shared" si="2"/>
         <v>0.14998592342342301</v>
       </c>
       <c r="L17">
@@ -6153,7 +6535,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
@@ -6176,7 +6558,7 @@
         <v>223</v>
       </c>
       <c r="J18">
-        <f>(C18-D18)/D18</f>
+        <f t="shared" si="2"/>
         <v>-7.7295987072448197E-2</v>
       </c>
       <c r="L18">
@@ -6213,7 +6595,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -6222,7 +6604,7 @@
       <c r="C20" s="29">
         <v>0.62844</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="46">
         <v>0.64083000000000001</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -6247,7 +6629,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -6279,14 +6661,14 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="35">
         <v>0.21535000000000001</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="47">
         <v>0.31929000000000002</v>
       </c>
       <c r="E22" s="37" t="s">
@@ -6343,7 +6725,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -6377,7 +6759,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -6409,7 +6791,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
@@ -6441,7 +6823,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
@@ -6473,7 +6855,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="11" t="s">
         <v>34</v>
       </c>
@@ -6565,14 +6947,14 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
@@ -6609,63 +6991,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V28" sqref="L1:V28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="51"/>
+      <c r="J2" s="70"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="45"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
@@ -6690,17 +7072,17 @@
       <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="51"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -6731,17 +7113,17 @@
         <v>1</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6770,17 +7152,17 @@
         <v>0.91</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -6809,17 +7191,17 @@
         <v>0.36749999999999999</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -6848,17 +7230,17 @@
         <v>-0.16500000000000001</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -6887,17 +7269,17 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -6928,17 +7310,17 @@
         <v>0.66500000000000004</v>
       </c>
       <c r="K9" s="15"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -6967,17 +7349,17 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="51"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="45"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -7006,17 +7388,17 @@
         <v>0.255</v>
       </c>
       <c r="K11" s="15"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="51"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="45"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -7045,17 +7427,17 @@
         <v>1</v>
       </c>
       <c r="K12" s="15"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -7084,17 +7466,17 @@
         <v>1</v>
       </c>
       <c r="K13" s="15"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -7123,17 +7505,17 @@
         <v>230</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="51"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="45"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -7162,17 +7544,17 @@
         <v>0.13</v>
       </c>
       <c r="K15" s="15"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="51"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -7201,17 +7583,17 @@
         <v>1</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -7240,17 +7622,17 @@
         <v>0.9</v>
       </c>
       <c r="K17" s="15"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
@@ -7279,17 +7661,17 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="K18" s="15"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -7320,17 +7702,17 @@
         <v>0.54749999999999999</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -7359,17 +7741,17 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K20" s="15"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="11" t="s">
         <v>28</v>
       </c>
@@ -7398,17 +7780,17 @@
         <v>-0.58499999999999996</v>
       </c>
       <c r="K21" s="15"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -7439,17 +7821,17 @@
         <v>-0.495</v>
       </c>
       <c r="K22" s="15"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
@@ -7478,17 +7860,17 @@
         <v>0.11749999999999999</v>
       </c>
       <c r="K23" s="15"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
@@ -7517,17 +7899,17 @@
         <v>-0.1575</v>
       </c>
       <c r="K24" s="15"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
@@ -7558,7 +7940,7 @@
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
@@ -7605,4 +7987,675 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+      <c r="B18" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="66"/>
+      <c r="B23" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="67"/>
+      <c r="B26" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="65">
+        <v>207.396683</v>
+      </c>
+      <c r="D3" s="74">
+        <v>2.0652279999999998</v>
+      </c>
+      <c r="E3" s="80">
+        <v>0.75054100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="81"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="81"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="82"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="71">
+        <v>104.251698</v>
+      </c>
+      <c r="D9" s="74">
+        <v>1.3823449999999999</v>
+      </c>
+      <c r="E9" s="77">
+        <v>0.75054100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="78"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="78"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+      <c r="B18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="79"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="71">
+        <v>48.746575999999997</v>
+      </c>
+      <c r="D20" s="74">
+        <v>0.86672400000000005</v>
+      </c>
+      <c r="E20" s="77">
+        <v>0.33856199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="78"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
+      <c r="B22" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="79"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="71">
+        <v>62.563521000000001</v>
+      </c>
+      <c r="D24" s="74">
+        <v>1.0673220000000001</v>
+      </c>
+      <c r="E24" s="77">
+        <v>0.254969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="78"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="78"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="78"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="67"/>
+      <c r="B28" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="79"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>